--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.43128366666667</v>
+        <v>21.27285266666667</v>
       </c>
       <c r="H2">
-        <v>49.293851</v>
+        <v>63.818558</v>
       </c>
       <c r="I2">
-        <v>0.1589154288049893</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="J2">
-        <v>0.1589154288049892</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.159191</v>
+        <v>80.019516</v>
       </c>
       <c r="N2">
-        <v>150.477573</v>
+        <v>240.058548</v>
       </c>
       <c r="O2">
-        <v>0.3080127083327998</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="P2">
-        <v>0.3080127083327999</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="Q2">
-        <v>824.1798958115138</v>
+        <v>1702.243374325976</v>
       </c>
       <c r="R2">
-        <v>7417.619062303624</v>
+        <v>15320.19036893378</v>
       </c>
       <c r="S2">
-        <v>0.04894797162209297</v>
+        <v>0.04363242451850691</v>
       </c>
       <c r="T2">
-        <v>0.04894797162209297</v>
+        <v>0.04363242451850691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.43128366666667</v>
+        <v>21.27285266666667</v>
       </c>
       <c r="H3">
-        <v>49.293851</v>
+        <v>63.818558</v>
       </c>
       <c r="I3">
-        <v>0.1589154288049893</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="J3">
-        <v>0.1589154288049892</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>106.256993</v>
       </c>
       <c r="O3">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="P3">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="Q3">
-        <v>581.9795978500049</v>
+        <v>753.4631189640105</v>
       </c>
       <c r="R3">
-        <v>5237.816380650043</v>
+        <v>6781.168070676094</v>
       </c>
       <c r="S3">
-        <v>0.03456371719932599</v>
+        <v>0.01931299787181925</v>
       </c>
       <c r="T3">
-        <v>0.03456371719932599</v>
+        <v>0.01931299787181925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.43128366666667</v>
+        <v>21.27285266666667</v>
       </c>
       <c r="H4">
-        <v>49.293851</v>
+        <v>63.818558</v>
       </c>
       <c r="I4">
-        <v>0.1589154288049893</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="J4">
-        <v>0.1589154288049892</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.54856066666667</v>
+        <v>14.174735</v>
       </c>
       <c r="N4">
-        <v>31.645682</v>
+        <v>42.524205</v>
       </c>
       <c r="O4">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="P4">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="Q4">
-        <v>173.3263925890425</v>
+        <v>301.5370492440433</v>
       </c>
       <c r="R4">
-        <v>1559.937533301382</v>
+        <v>2713.83344319639</v>
       </c>
       <c r="S4">
-        <v>0.0102938392320946</v>
+        <v>0.007729090175418434</v>
       </c>
       <c r="T4">
-        <v>0.01029383923209459</v>
+        <v>0.007729090175418434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.43128366666667</v>
+        <v>21.27285266666667</v>
       </c>
       <c r="H5">
-        <v>49.293851</v>
+        <v>63.818558</v>
       </c>
       <c r="I5">
-        <v>0.1589154288049893</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="J5">
-        <v>0.1589154288049892</v>
+        <v>0.1403158092128609</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>66.72104766666666</v>
+        <v>127.7183863333333</v>
       </c>
       <c r="N5">
-        <v>200.163143</v>
+        <v>383.155159</v>
       </c>
       <c r="O5">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="P5">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="Q5">
-        <v>1096.312460748188</v>
+        <v>2716.934415293414</v>
       </c>
       <c r="R5">
-        <v>9866.812146733693</v>
+        <v>24452.40973764072</v>
       </c>
       <c r="S5">
-        <v>0.06510990075147569</v>
+        <v>0.06964129664711635</v>
       </c>
       <c r="T5">
-        <v>0.06510990075147569</v>
+        <v>0.06964129664711635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>28.567405</v>
       </c>
       <c r="I6">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="J6">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.159191</v>
+        <v>80.019516</v>
       </c>
       <c r="N6">
-        <v>150.477573</v>
+        <v>240.058548</v>
       </c>
       <c r="O6">
-        <v>0.3080127083327998</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="P6">
-        <v>0.3080127083327999</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="Q6">
-        <v>477.6393079231184</v>
+        <v>761.9833071586601</v>
       </c>
       <c r="R6">
-        <v>4298.753771308066</v>
+        <v>6857.84976442794</v>
       </c>
       <c r="S6">
-        <v>0.02836695654508382</v>
+        <v>0.01953138995011635</v>
       </c>
       <c r="T6">
-        <v>0.02836695654508383</v>
+        <v>0.01953138995011635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>28.567405</v>
       </c>
       <c r="I7">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="J7">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>106.256993</v>
       </c>
       <c r="O7">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="P7">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="Q7">
         <v>337.2762836792406</v>
@@ -883,10 +883,10 @@
         <v>3035.486553113165</v>
       </c>
       <c r="S7">
-        <v>0.02003080886373863</v>
+        <v>0.008645169199347916</v>
       </c>
       <c r="T7">
-        <v>0.02003080886373863</v>
+        <v>0.008645169199347916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>28.567405</v>
       </c>
       <c r="I8">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="J8">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.54856066666667</v>
+        <v>14.174735</v>
       </c>
       <c r="N8">
-        <v>31.645682</v>
+        <v>42.524205</v>
       </c>
       <c r="O8">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="P8">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="Q8">
-        <v>100.4483349105789</v>
+        <v>134.9784651708917</v>
       </c>
       <c r="R8">
-        <v>904.03501419521</v>
+        <v>1214.806186538025</v>
       </c>
       <c r="S8">
-        <v>0.005965617787665551</v>
+        <v>0.003459809438544497</v>
       </c>
       <c r="T8">
-        <v>0.005965617787665551</v>
+        <v>0.003459809438544497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>28.567405</v>
       </c>
       <c r="I9">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="J9">
-        <v>0.09209670827748463</v>
+        <v>0.06281023381453604</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>66.72104766666666</v>
+        <v>127.7183863333333</v>
       </c>
       <c r="N9">
-        <v>200.163143</v>
+        <v>383.155159</v>
       </c>
       <c r="O9">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="P9">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="Q9">
-        <v>635.3490635726572</v>
+        <v>1216.1942894436</v>
       </c>
       <c r="R9">
-        <v>5718.141572153915</v>
+        <v>10945.7486049924</v>
       </c>
       <c r="S9">
-        <v>0.03773332508099662</v>
+        <v>0.03117386522652729</v>
       </c>
       <c r="T9">
-        <v>0.03773332508099662</v>
+        <v>0.03117386522652729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.384413333333333</v>
+        <v>1.192664333333333</v>
       </c>
       <c r="H10">
-        <v>4.15324</v>
+        <v>3.577993</v>
       </c>
       <c r="I10">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="J10">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.159191</v>
+        <v>80.019516</v>
       </c>
       <c r="N10">
-        <v>150.477573</v>
+        <v>240.058548</v>
       </c>
       <c r="O10">
-        <v>0.3080127083327998</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="P10">
-        <v>0.3080127083327999</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="Q10">
-        <v>69.44105280961334</v>
+        <v>95.436422703796</v>
       </c>
       <c r="R10">
-        <v>624.96947528652</v>
+        <v>858.927804334164</v>
       </c>
       <c r="S10">
-        <v>0.004124098027150311</v>
+        <v>0.002446255672217572</v>
       </c>
       <c r="T10">
-        <v>0.004124098027150312</v>
+        <v>0.002446255672217572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.384413333333333</v>
+        <v>1.192664333333333</v>
       </c>
       <c r="H11">
-        <v>4.15324</v>
+        <v>3.577993</v>
       </c>
       <c r="I11">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="J11">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>106.256993</v>
       </c>
       <c r="O11">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="P11">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="Q11">
-        <v>49.03453262303557</v>
+        <v>42.24297523944989</v>
       </c>
       <c r="R11">
-        <v>441.3107936073201</v>
+        <v>380.186777155049</v>
       </c>
       <c r="S11">
-        <v>0.002912156585634356</v>
+        <v>0.001082784903951985</v>
       </c>
       <c r="T11">
-        <v>0.002912156585634356</v>
+        <v>0.001082784903951985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.384413333333333</v>
+        <v>1.192664333333333</v>
       </c>
       <c r="H12">
-        <v>4.15324</v>
+        <v>3.577993</v>
       </c>
       <c r="I12">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="J12">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.54856066666667</v>
+        <v>14.174735</v>
       </c>
       <c r="N12">
-        <v>31.645682</v>
+        <v>42.524205</v>
       </c>
       <c r="O12">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="P12">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="Q12">
-        <v>14.60356803440889</v>
+        <v>16.90570086895167</v>
       </c>
       <c r="R12">
-        <v>131.43211230968</v>
+        <v>152.151307820565</v>
       </c>
       <c r="S12">
-        <v>0.0008673046228890609</v>
+        <v>0.000433332112330334</v>
       </c>
       <c r="T12">
-        <v>0.0008673046228890609</v>
+        <v>0.000433332112330334</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.384413333333333</v>
+        <v>1.192664333333333</v>
       </c>
       <c r="H13">
-        <v>4.15324</v>
+        <v>3.577993</v>
       </c>
       <c r="I13">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="J13">
-        <v>0.01338937620292709</v>
+        <v>0.007866818036737088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>66.72104766666666</v>
+        <v>127.7183863333333</v>
       </c>
       <c r="N13">
-        <v>200.163143</v>
+        <v>383.155159</v>
       </c>
       <c r="O13">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="P13">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="Q13">
-        <v>92.36950800370222</v>
+        <v>152.3251640906541</v>
       </c>
       <c r="R13">
-        <v>831.32557203332</v>
+        <v>1370.926476815887</v>
       </c>
       <c r="S13">
-        <v>0.005485816967253357</v>
+        <v>0.003904445348237198</v>
       </c>
       <c r="T13">
-        <v>0.005485816967253357</v>
+        <v>0.003904445348237198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.05823733333334</v>
+        <v>119.6189703333333</v>
       </c>
       <c r="H14">
-        <v>228.174712</v>
+        <v>358.856911</v>
       </c>
       <c r="I14">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358658</v>
       </c>
       <c r="J14">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358659</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.159191</v>
+        <v>80.019516</v>
       </c>
       <c r="N14">
-        <v>150.477573</v>
+        <v>240.058548</v>
       </c>
       <c r="O14">
-        <v>0.3080127083327998</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="P14">
-        <v>0.3080127083327999</v>
+        <v>0.3109587206407793</v>
       </c>
       <c r="Q14">
-        <v>3815.019653525997</v>
+        <v>9571.852110491691</v>
       </c>
       <c r="R14">
-        <v>34335.17688173398</v>
+        <v>86146.66899442521</v>
       </c>
       <c r="S14">
-        <v>0.2265736821384727</v>
+        <v>0.2453486504999385</v>
       </c>
       <c r="T14">
-        <v>0.2265736821384728</v>
+        <v>0.2453486504999385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.05823733333334</v>
+        <v>119.6189703333333</v>
       </c>
       <c r="H15">
-        <v>228.174712</v>
+        <v>358.856911</v>
       </c>
       <c r="I15">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358658</v>
       </c>
       <c r="J15">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358659</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>106.256993</v>
       </c>
       <c r="O15">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="P15">
-        <v>0.2174975548896536</v>
+        <v>0.1376395003539564</v>
       </c>
       <c r="Q15">
-        <v>2693.906530640113</v>
+        <v>4236.784031125402</v>
       </c>
       <c r="R15">
-        <v>24245.15877576102</v>
+        <v>38131.05628012862</v>
       </c>
       <c r="S15">
-        <v>0.1599908722409546</v>
+        <v>0.1085985483788372</v>
       </c>
       <c r="T15">
-        <v>0.1599908722409546</v>
+        <v>0.1085985483788372</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.05823733333334</v>
+        <v>119.6189703333333</v>
       </c>
       <c r="H16">
-        <v>228.174712</v>
+        <v>358.856911</v>
       </c>
       <c r="I16">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358658</v>
       </c>
       <c r="J16">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358659</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.54856066666667</v>
+        <v>14.174735</v>
       </c>
       <c r="N16">
-        <v>31.645682</v>
+        <v>42.524205</v>
       </c>
       <c r="O16">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="P16">
-        <v>0.06477558100872968</v>
+        <v>0.05508353063547745</v>
       </c>
       <c r="Q16">
-        <v>802.3049307103983</v>
+        <v>1695.567205447862</v>
       </c>
       <c r="R16">
-        <v>7220.744376393584</v>
+        <v>15260.10484903075</v>
       </c>
       <c r="S16">
-        <v>0.04764881936608047</v>
+        <v>0.04346129890918417</v>
       </c>
       <c r="T16">
-        <v>0.04764881936608047</v>
+        <v>0.04346129890918418</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.05823733333334</v>
+        <v>119.6189703333333</v>
       </c>
       <c r="H17">
-        <v>228.174712</v>
+        <v>358.856911</v>
       </c>
       <c r="I17">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358658</v>
       </c>
       <c r="J17">
-        <v>0.735598486714599</v>
+        <v>0.7890071389358659</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>66.72104766666666</v>
+        <v>127.7183863333333</v>
       </c>
       <c r="N17">
-        <v>200.163143</v>
+        <v>383.155159</v>
       </c>
       <c r="O17">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="P17">
-        <v>0.4097141557688168</v>
+        <v>0.4963182483697869</v>
       </c>
       <c r="Q17">
-        <v>5074.685278559979</v>
+        <v>15277.54186582821</v>
       </c>
       <c r="R17">
-        <v>45672.16750703981</v>
+        <v>137497.8767924538</v>
       </c>
       <c r="S17">
-        <v>0.3013851129690912</v>
+        <v>0.391598641147906</v>
       </c>
       <c r="T17">
-        <v>0.3013851129690912</v>
+        <v>0.391598641147906</v>
       </c>
     </row>
   </sheetData>
